--- a/biology/Médecine/Pomme_Jouffroy/Pomme_Jouffroy.xlsx
+++ b/biology/Médecine/Pomme_Jouffroy/Pomme_Jouffroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomme Jouffroy, née le 30 mars 1957, est une femme de lettres et chirurgienne française. Elle participe de manière occasionnelle à l'émission Allô Docteurs, sur France 5.
 </t>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pomme Jouffroy effectue toute sa scolarité secondaire au lycée parisien Victor-Duruy. Elle milite dans une organisation lycéenne, l'UNCAL (Union nationale des comités d'actions lycéens[1]) et devient membre de son bureau national[2].
-Elle mène ses études de médecine de 1974 à 1987 à la faculté de médecine de Paris-VII, est interne des hôpitaux de Paris de 1982 à 1987, et soutient sa thèse de doctorat en médecine (médaille d'argent) en octobre 1987 sur « L'interprétation du scanner dans les fractures du cotyle »[3]. Elle exerce à l'hôpital Saint-Joseph à Paris[4].
-Famille
-Elle est la fille du peintre Jean-Pierre Jouffroy (1933-2018) et la sœur de l'éditrice et comédienne Clémentine Jouffroy.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pomme Jouffroy effectue toute sa scolarité secondaire au lycée parisien Victor-Duruy. Elle milite dans une organisation lycéenne, l'UNCAL (Union nationale des comités d'actions lycéens) et devient membre de son bureau national.
+Elle mène ses études de médecine de 1974 à 1987 à la faculté de médecine de Paris-VII, est interne des hôpitaux de Paris de 1982 à 1987, et soutient sa thèse de doctorat en médecine (médaille d'argent) en octobre 1987 sur « L'interprétation du scanner dans les fractures du cotyle ». Elle exerce à l'hôpital Saint-Joseph à Paris.
 </t>
         </is>
       </c>
@@ -542,15 +554,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est la fille du peintre Jean-Pierre Jouffroy (1933-2018) et la sœur de l'éditrice et comédienne Clémentine Jouffroy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pomme_Jouffroy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomme_Jouffroy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il n'y a plus d'hôpital au numéro que vous avez demandé..., essai, éditions Plon, 2002  (ISBN 978-2259197076)
-Les Immortelles, essai[5], éditions du Palmier, 2005  (ISBN 978-2914920544)
-Rue de Rome, roman[6], éditions des femmes, 2006  (ISBN 978-2721005304)
-Res Nullius, roman[7], éditions des femmes, 2007  (ISBN 978-2721005588)
+Les Immortelles, essai, éditions du Palmier, 2005  (ISBN 978-2914920544)
+Rue de Rome, roman, éditions des femmes, 2006  (ISBN 978-2721005304)
+Res Nullius, roman, éditions des femmes, 2007  (ISBN 978-2721005588)
 De la rhubarbe sous les pylônes, roman, éditions des femmes, 2009  (ISBN 978-2721005908)</t>
         </is>
       </c>
